--- a/medicine/Sexualité et sexologie/Abdessamad_Dialmy/Abdessamad_Dialmy.xlsx
+++ b/medicine/Sexualité et sexologie/Abdessamad_Dialmy/Abdessamad_Dialmy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Casablanca, Abdessamad Dialmy est un sociologue marocain. Il est docteur d’État, professeur d’université, consultant international en santé sexuelle. Il traite des questions de société comme la sexualité et les rapports sociaux de sexe en cherchant des réponses dans l'islam tout en récusant les lectures de l’islamisme. Ses thèmes de recherches se situent au cœur de la sociologie du monde arabe et de l'Islam, la sexualité et la santé.
 </t>
@@ -511,7 +523,9 @@
           <t>Formation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Abdessamad Dialmy obtient son baccalauréat à Marrakech en 1967, une licence en philosophie en 1971, un DEA en histoire de la philosophie en 1972 et un DES en sociologie en 1980 à l'Université Mohamed V de Rabat en (Sexualité et Société au Maroc). Il soutient son doctorat d'État en sociologie à l'Université de Picardie (Amiens, France) en 1987 sur « Femmes et Discours au Maroc ».
 </t>
@@ -542,7 +556,9 @@
           <t>Parcours enseignant</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Abdessamad Dialmy enseigne la philosophie dans le secondaire (Safi et Casablanca), puis la psychopédagogie au CPR de Casablanca après avoir effectué un stage à l'École normale supérieure de Saint Cloud en France (1973-1974). Il est recruté par l'université de Fès en octobre 1977, où il est directeur du département de philosophie, sociologie et psychologie en 1993 et 1994. En 1995, il fonde un Observatoire des mouvements sociaux et en 1997 un Laboratoire inter-disciplinaire d'études sur la santé et la population qui organisent des conférences internationales sur des thèmes comme l'émigration, les sciences sociales, la santé, les pratiques associatives…
 Depuis 2006, Abdessamad Dialmy est professeur associé à l’Université Mohammed V (enseignement, recherche, conférences, coopération…).
@@ -574,7 +590,9 @@
           <t>Parcours extra-universitaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Abdessamad Dialmy est membre fondateur de l'AAS (Association arabe de sociologie), membre d’AMADES (Anthropologie médicale appliquée au développement et à la santé), de la SISR (Société internationale de sociologie des religions) et de la WAS (World Association for Sexology). Il est membre du comité de rédaction de Social Compass (Revue Internationale de Sociologie de la Religion, Louvain-La-Neuve, Sage Publications).
 Il a été à plusieurs reprises professeur-invité dans des universités européennes. En 1999, il fut invité aux États-Unis par le département d'État dans le cadre du programme « International Visitors ». Il participa à plusieurs conférences nationales et internationales à travers le monde. Il est expert-consultant auprès d’organisations internationales telles que OMS, UNICEF, FNUAP, Conseil de la Population, USAID, Union européenne, OIM. Il a également travaillé comme consultant pour le ministère marocain de la santé, le ministère de la femme et de la famille, le CERED…
@@ -608,8 +626,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Livres
-- Vers une masculinité non violente à l'égard des femmes, Casablanca, Le Fennec, 2023. 
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">- Vers une masculinité non violente à l'égard des femmes, Casablanca, Le Fennec, 2023. 
 - Le féminisme islamique n’a pas de sexe, Paris, L’Harmattan, 2022 (230 pages). 
 - Vers une réforme sexuelle en Islam, Casablanca/Beyrouth, 2021, 318 pages, (in Arabic).
 -Ville, sexualité et islamisme, Casablanca, Editions IMPR, 2018, 265 pages (Réédition de Logement, sexualité et islam, Casablanca, Eddif, 1995, 395 pages).    
